--- a/data/trans_bre/P33A-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P33A-Habitat-trans_bre.xlsx
@@ -618,7 +618,7 @@
         <v>-11.32433034737292</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-9.551336785799558</v>
+        <v>-9.551336785799581</v>
       </c>
       <c r="F4" s="6" t="n">
         <v>-0.1708404504917807</v>
@@ -627,7 +627,7 @@
         <v>-0.1339880889114373</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>-0.1133685483052998</v>
+        <v>-0.1133685483053001</v>
       </c>
     </row>
     <row r="5">
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-19.41413735216776</v>
+        <v>-19.20094488545345</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-16.04809836016127</v>
+        <v>-15.90571241934687</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-13.27592626579611</v>
+        <v>-12.99585162937444</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.2213341607983124</v>
+        <v>-0.2193432202615618</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.1861001408791094</v>
+        <v>-0.1851584720467015</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.1537244557833262</v>
+        <v>-0.1510857261999251</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-10.14237763053347</v>
+        <v>-10.42819768467404</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-7.036659948998865</v>
+        <v>-7.113234831789274</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-5.675485332163646</v>
+        <v>-5.782295742860588</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>-0.1209411767519454</v>
+        <v>-0.1234568882323569</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-0.08473717327535386</v>
+        <v>-0.0856624376825907</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>-0.06919521041405209</v>
+        <v>-0.07055735549522713</v>
       </c>
     </row>
     <row r="7">
@@ -700,7 +700,7 @@
         <v>-12.87773728450155</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>-9.051317610524535</v>
+        <v>-9.051317610524523</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.1178326173359528</v>
@@ -709,7 +709,7 @@
         <v>-0.1511782291451821</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.1079405414458944</v>
+        <v>-0.1079405414458943</v>
       </c>
     </row>
     <row r="8">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-13.47788958393929</v>
+        <v>-13.40544871751619</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-16.76416261424498</v>
+        <v>-16.81807852043356</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-12.73371512542726</v>
+        <v>-12.47555114298287</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1574600803634006</v>
+        <v>-0.1569042397700241</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1942550466983176</v>
+        <v>-0.1940721856301189</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.147845910307023</v>
+        <v>-0.143675886270153</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-6.324752067063552</v>
+        <v>-6.345916228462077</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-9.393409193555234</v>
+        <v>-9.149907020969154</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-5.9417067778584</v>
+        <v>-5.906348915199765</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.07662909726334854</v>
+        <v>-0.07766942001428326</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.1124888398700776</v>
+        <v>-0.108348274479819</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.07227969453790771</v>
+        <v>-0.07126634727964509</v>
       </c>
     </row>
     <row r="10">
@@ -782,7 +782,7 @@
         <v>-9.000856425390225</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-8.003814022832312</v>
+        <v>-8.003814022832323</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>-0.1307991334167034</v>
@@ -791,7 +791,7 @@
         <v>-0.1038371621168772</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>-0.09672148097943919</v>
+        <v>-0.09672148097943931</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-15.23419900617664</v>
+        <v>-15.26426957391311</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-13.19257400263714</v>
+        <v>-12.83329742639482</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-12.01080910779828</v>
+        <v>-12.19371213125446</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.1786128347177067</v>
+        <v>-0.1764165388785601</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1498906329737598</v>
+        <v>-0.1463929127121059</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.1420724762738934</v>
+        <v>-0.144044891401612</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-6.755014339562313</v>
+        <v>-7.304463863835442</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-5.241675566419568</v>
+        <v>-4.920204147685748</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-3.377581671993854</v>
+        <v>-4.063097881980561</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>-0.0820180404703361</v>
+        <v>-0.08839254387252582</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.06149140349665756</v>
+        <v>-0.0582709141695478</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-0.04309700783804433</v>
+        <v>-0.05049833448958074</v>
       </c>
     </row>
     <row r="13">
@@ -864,7 +864,7 @@
         <v>-8.513429530810679</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>-9.080494645670711</v>
+        <v>-9.080494645670722</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.1334028826534984</v>
@@ -873,7 +873,7 @@
         <v>-0.1053516050171037</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.1119251193230698</v>
+        <v>-0.1119251193230699</v>
       </c>
     </row>
     <row r="14">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-14.81715150337928</v>
+        <v>-14.86342968574691</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-12.25853722617852</v>
+        <v>-12.15416533357193</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-12.52956976204948</v>
+        <v>-12.52400280147993</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1726782115180439</v>
+        <v>-0.1734060991067771</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1483044120785844</v>
+        <v>-0.1471312881899139</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1514980861551036</v>
+        <v>-0.1505293636013614</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-7.633077630633734</v>
+        <v>-7.263810796351122</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-4.677157208104017</v>
+        <v>-4.834390897609369</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-5.771343632309461</v>
+        <v>-5.765237886094356</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.09225107586698858</v>
+        <v>-0.0879867905068881</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.05901676945455497</v>
+        <v>-0.06152653225641146</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.0725390451745799</v>
+        <v>-0.07234808208794757</v>
       </c>
     </row>
     <row r="16">
@@ -946,7 +946,7 @@
         <v>-10.51577305723495</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-8.971357129223412</v>
+        <v>-8.971357129223422</v>
       </c>
       <c r="F16" s="6" t="n">
         <v>-0.1359402264186633</v>
@@ -955,7 +955,7 @@
         <v>-0.1249172200556938</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>-0.108195088189943</v>
+        <v>-0.1081950881899432</v>
       </c>
     </row>
     <row r="17">
@@ -966,22 +966,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-13.47114901441861</v>
+        <v>-13.411424468717</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-12.63472579070764</v>
+        <v>-12.66958610177505</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-11.01706999398074</v>
+        <v>-10.67067676172188</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.156755470377942</v>
+        <v>-0.1561122301184295</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.1483444515659166</v>
+        <v>-0.1497864864169711</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.1312232740311873</v>
+        <v>-0.1270947881978949</v>
       </c>
     </row>
     <row r="18">
@@ -992,22 +992,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-9.617953926156012</v>
+        <v>-9.6446334132087</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-8.640745488659787</v>
+        <v>-8.669679987318997</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-7.052879884267979</v>
+        <v>-7.124481311947176</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>-0.1139234821533009</v>
+        <v>-0.1141961212971651</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.102820858597931</v>
+        <v>-0.104332779518391</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>-0.08615785327754139</v>
+        <v>-0.08694492195212904</v>
       </c>
     </row>
     <row r="19">
